--- a/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Advanced Course Files/Instructor Files/Section 2/02-02-introduction-to-spills-and-arrays.xlsx
+++ b/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Advanced Course Files/Instructor Files/Section 2/02-02-introduction-to-spills-and-arrays.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f21e54c367d3358c/Documents/01 Work Files/05 SSIT/Online Courses/Excel 2021 Advanced/Course Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git_Excel_Learning\normal\Excel 2021 Beginner to Advanced Course Files\Excel 2021 Advanced Course Files\Instructor Files\Section 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{93570ABF-0990-4A38-8DF3-E1085B163827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C70FB6F-3E19-4935-9669-72261483C86D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA096A3C-1A68-47DA-B9A8-B831F221884F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{F7C54BF8-C9F0-42E7-882B-0196C240C315}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{F7C54BF8-C9F0-42E7-882B-0196C240C315}"/>
   </bookViews>
   <sheets>
     <sheet name="Spills and Arrays" sheetId="1" r:id="rId1"/>
@@ -34,8 +34,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="96">
   <si>
     <t>Sales</t>
   </si>
@@ -308,6 +330,21 @@
   </si>
   <si>
     <t>James Carter</t>
+  </si>
+  <si>
+    <t>Ctrl + Shift +Enter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conbine multiple calculations in one formula </t>
+  </si>
+  <si>
+    <t>use CSE</t>
+  </si>
+  <si>
+    <t>only sum</t>
+  </si>
+  <si>
+    <t>John cena</t>
   </si>
 </sst>
 </file>
@@ -315,7 +352,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -412,9 +449,7 @@
         <color theme="7" tint="0.39997558519241921"/>
       </left>
       <right/>
-      <top style="thin">
-        <color theme="7" tint="0.39997558519241921"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -423,27 +458,25 @@
       <right style="thin">
         <color theme="7" tint="0.39997558519241921"/>
       </right>
-      <top style="thin">
-        <color theme="7" tint="0.39997558519241921"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -453,7 +486,38 @@
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="7" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -479,6 +543,20 @@
       </fill>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -502,20 +580,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -530,8 +594,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E1939132-A970-4DB4-86BA-704C84E5E0C7}" name="Employee_Location" displayName="Employee_Location" ref="G3:I17" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="2" tableBorderDxfId="3">
-  <autoFilter ref="G3:I17" xr:uid="{E1939132-A970-4DB4-86BA-704C84E5E0C7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E1939132-A970-4DB4-86BA-704C84E5E0C7}" name="Employee_Location" displayName="Employee_Location" ref="G3:I18" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="G3:I18" xr:uid="{E1939132-A970-4DB4-86BA-704C84E5E0C7}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{94A0C024-83EA-46F0-82A7-7E44F89B16B1}" name="Employee"/>
     <tableColumn id="2" xr3:uid="{1B71110F-F727-4908-85ED-7FA7BACFF9B3}" name="Dept"/>
@@ -542,11 +606,22 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A8B367D0-8674-4AEA-859D-08198845AE11}" name="Staff4" displayName="Staff4" ref="D19:E30" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="D19:E30" xr:uid="{A8B367D0-8674-4AEA-859D-08198845AE11}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A8B367D0-8674-4AEA-859D-08198845AE11}" name="Staff4" displayName="Staff4" ref="G5:H16" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="G5:H16" xr:uid="{A8B367D0-8674-4AEA-859D-08198845AE11}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{A03F3DAA-CEAB-40BA-BFE7-F5843FCDB21F}" name="First Name"/>
     <tableColumn id="3" xr3:uid="{109BEBA9-104B-441B-A714-2D3E2C58D1FF}" name="Dept"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F2D9A4E8-E3AB-448C-A76B-22E47E48E7F5}" name="Table2" displayName="Table2" ref="A5:B24" totalsRowShown="0" headerRowDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="A5:B24" xr:uid="{F2D9A4E8-E3AB-448C-A76B-22E47E48E7F5}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{E87FB03C-A506-4052-AF86-5DF1DF938353}" name="First Name"/>
+    <tableColumn id="2" xr3:uid="{BD06BFBB-0A3D-48B1-8381-EEF97D1A5B94}" name="Last Name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -807,10 +882,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E86906-9D4F-417C-B01C-B523EEC5EA67}">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -866,6 +941,10 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
+      <c r="B4" t="str">
+        <f>VLOOKUP(A4,Employee_Location[],2,0)</f>
+        <v>IT</v>
+      </c>
       <c r="G4" t="s">
         <v>4</v>
       </c>
@@ -876,13 +955,27 @@
         <v>21</v>
       </c>
       <c r="K4" t="s">
-        <v>19</v>
+        <v>0</v>
+      </c>
+      <c r="M4" t="str" cm="1">
+        <f t="array" ref="M4:O8">_xlfn._xlws.FILTER(Employee_Location[],Employee_Location[Dept]=K4)</f>
+        <v>Lucy Jones</v>
+      </c>
+      <c r="N4" t="str">
+        <v>Sales</v>
+      </c>
+      <c r="O4" t="str">
+        <v>West</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
+      <c r="B5" t="str">
+        <f>VLOOKUP(A5,Employee_Location[],2,0)</f>
+        <v>HR</v>
+      </c>
       <c r="G5" t="s">
         <v>5</v>
       </c>
@@ -891,12 +984,25 @@
       </c>
       <c r="I5" t="s">
         <v>22</v>
+      </c>
+      <c r="M5" t="str">
+        <v>Julie Sawyer</v>
+      </c>
+      <c r="N5" t="str">
+        <v>Sales</v>
+      </c>
+      <c r="O5" t="str">
+        <v>South</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
+      <c r="B6" t="str">
+        <f>VLOOKUP(A6,Employee_Location[],2,0)</f>
+        <v>Sales</v>
+      </c>
       <c r="G6" t="s">
         <v>6</v>
       </c>
@@ -908,6 +1014,15 @@
       </c>
       <c r="K6" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="M6" t="str">
+        <v>Patrick O'Neil</v>
+      </c>
+      <c r="N6" t="str">
+        <v>Sales</v>
+      </c>
+      <c r="O6" t="str">
+        <v>North</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -923,11 +1038,17 @@
       <c r="K7" t="s">
         <v>23</v>
       </c>
+      <c r="M7" t="str">
+        <v>Molly Merita</v>
+      </c>
+      <c r="N7" t="str">
+        <v>Sales</v>
+      </c>
+      <c r="O7" t="str">
+        <v>North</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="G8" t="s">
         <v>8</v>
       </c>
@@ -937,8 +1058,23 @@
       <c r="I8" t="s">
         <v>24</v>
       </c>
+      <c r="M8" t="str">
+        <v>John cena</v>
+      </c>
+      <c r="N8" t="str">
+        <v>Sales</v>
+      </c>
+      <c r="O8" t="str">
+        <v>East</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" t="s">
+        <v>92</v>
+      </c>
       <c r="G9" t="s">
         <v>9</v>
       </c>
@@ -950,14 +1086,8 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>30</v>
+      <c r="A10" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -970,15 +1100,6 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11" s="4">
-        <v>1.5</v>
-      </c>
       <c r="D11" s="8"/>
       <c r="G11" t="s">
         <v>11</v>
@@ -991,14 +1112,14 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12">
-        <v>15</v>
-      </c>
-      <c r="C12" s="4">
-        <v>1.2</v>
+      <c r="A12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="D12" s="8"/>
       <c r="G12" t="s">
@@ -1013,15 +1134,18 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B13">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C13" s="4">
-        <v>1</v>
-      </c>
-      <c r="D13" s="8"/>
+        <v>1.5</v>
+      </c>
+      <c r="D13" s="8">
+        <f>SUM(B13*C13)</f>
+        <v>15</v>
+      </c>
       <c r="G13" t="s">
         <v>13</v>
       </c>
@@ -1034,15 +1158,18 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C14" s="4">
-        <v>2</v>
-      </c>
-      <c r="D14" s="8"/>
+        <v>1.2</v>
+      </c>
+      <c r="D14" s="8">
+        <f t="shared" ref="D14:D18" si="0">SUM(B14*C14)</f>
+        <v>18</v>
+      </c>
       <c r="G14" t="s">
         <v>14</v>
       </c>
@@ -1055,15 +1182,18 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B15">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C15" s="4">
-        <v>1.25</v>
-      </c>
-      <c r="D15" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="D15" s="8">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
       <c r="G15" t="s">
         <v>15</v>
       </c>
@@ -1076,15 +1206,18 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B16">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C16" s="4">
-        <v>2.25</v>
-      </c>
-      <c r="D16" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="D16" s="8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="G16" t="s">
         <v>16</v>
       </c>
@@ -1096,12 +1229,19 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8"/>
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="D17" s="8">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
       <c r="G17" t="s">
         <v>17</v>
       </c>
@@ -1110,6 +1250,52 @@
       </c>
       <c r="I17" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18">
+        <v>22</v>
+      </c>
+      <c r="C18" s="4">
+        <v>2.25</v>
+      </c>
+      <c r="D18" s="8">
+        <f t="shared" si="0"/>
+        <v>49.5</v>
+      </c>
+      <c r="G18" t="s">
+        <v>95</v>
+      </c>
+      <c r="H18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="7">
+        <f t="array" ref="C19">SUM(B13:B18*C13:C18)</f>
+        <v>132.5</v>
+      </c>
+      <c r="D19" s="8">
+        <f>SUM(D13:D18)</f>
+        <v>132.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1123,10 +1309,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48125F3B-B9F8-41EE-9A28-46649B307670}">
-  <dimension ref="A2:E41"/>
+  <dimension ref="A2:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1137,12 +1323,16 @@
     <col min="5" max="5" width="10.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D2" s="10" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <f>COUNTA(_xlfn.ANCHORARRAY(D6))/2</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>38</v>
       </c>
@@ -1155,259 +1345,351 @@
       <c r="E5" s="10" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>52</v>
       </c>
       <c r="B6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D6" t="str" cm="1">
+        <f t="array" ref="D6:E24">_xlfn.SORTBY(PROPER(Table2[]),Table2[Last Name],1)</f>
+        <v>Jen</v>
+      </c>
+      <c r="E6" t="str">
+        <v>Baxter</v>
+      </c>
+      <c r="G6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>53</v>
       </c>
       <c r="B7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D7" t="str">
+        <v>Olivia</v>
+      </c>
+      <c r="E7" t="str">
+        <v>Brand</v>
+      </c>
+      <c r="G7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>54</v>
       </c>
       <c r="B8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D8" t="str">
+        <v>James</v>
+      </c>
+      <c r="E8" t="str">
+        <v>Carter</v>
+      </c>
+      <c r="G8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>55</v>
       </c>
       <c r="B9" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D9" t="str">
+        <v>Lucy</v>
+      </c>
+      <c r="E9" t="str">
+        <v>Devonshire</v>
+      </c>
+      <c r="G9" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>56</v>
       </c>
       <c r="B10" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D10" t="str">
+        <v>Penelope</v>
+      </c>
+      <c r="E10" t="str">
+        <v>Firsk</v>
+      </c>
+      <c r="G10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>57</v>
       </c>
       <c r="B11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D11" t="str">
+        <v>Phillipa</v>
+      </c>
+      <c r="E11" t="str">
+        <v>Frost</v>
+      </c>
+      <c r="G11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>58</v>
       </c>
       <c r="B12" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D12" t="str">
+        <v>Mike</v>
+      </c>
+      <c r="E12" t="str">
+        <v>Hannigan</v>
+      </c>
+      <c r="G12" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>59</v>
       </c>
       <c r="B13" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D13" t="str">
+        <v>Matt</v>
+      </c>
+      <c r="E13" t="str">
+        <v>Harker</v>
+      </c>
+      <c r="G13" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>60</v>
       </c>
       <c r="B14" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D14" t="str">
+        <v>Farooq</v>
+      </c>
+      <c r="E14" t="str">
+        <v>Khan</v>
+      </c>
+      <c r="G14" t="s">
+        <v>88</v>
+      </c>
+      <c r="H14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>61</v>
       </c>
       <c r="B15" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15" t="str">
+        <v>Briony</v>
+      </c>
+      <c r="E15" t="str">
+        <v>Majors</v>
+      </c>
+      <c r="G15" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>62</v>
       </c>
       <c r="B16" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D19" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
-        <v>81</v>
-      </c>
-      <c r="E21" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
-        <v>82</v>
-      </c>
-      <c r="E22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
-        <v>83</v>
-      </c>
-      <c r="E23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>84</v>
-      </c>
-      <c r="E24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
-        <v>85</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="D16" t="str">
+        <v>David</v>
+      </c>
+      <c r="E16" t="str">
+        <v>Marks</v>
+      </c>
+      <c r="G16" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
-        <v>86</v>
-      </c>
-      <c r="E26" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
-        <v>88</v>
-      </c>
-      <c r="E28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
-        <v>89</v>
-      </c>
-      <c r="E29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D30" t="s">
-        <v>90</v>
-      </c>
-      <c r="E30" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>64</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B17" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="D17" t="str">
+        <v>Sarah</v>
+      </c>
+      <c r="E17" t="str">
+        <v>Mills</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>66</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B18" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="D18" t="str">
+        <v>Julian</v>
+      </c>
+      <c r="E18" t="str">
+        <v>Moore</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>68</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B19" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="D19" t="str">
+        <v>Mary</v>
+      </c>
+      <c r="E19" t="str">
+        <v>Oliver</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>70</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B20" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="D20" t="str">
+        <v>Amanda</v>
+      </c>
+      <c r="E20" t="str">
+        <v>Peters</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>72</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B21" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="D21" t="str">
+        <v>Brad</v>
+      </c>
+      <c r="E21" t="str">
+        <v>Porter</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>74</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B22" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="D22" t="str">
+        <v>Pooja</v>
+      </c>
+      <c r="E22" t="str">
+        <v>Roy</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>76</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B23" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="D23" t="str">
+        <v>Ben</v>
+      </c>
+      <c r="E23" t="str">
+        <v>Stone</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>78</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B24" t="s">
         <v>79</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Tilly</v>
+      </c>
+      <c r="E24" t="str">
+        <v>Sullivan</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>